--- a/RACS_protocol_v1.1.xlsx
+++ b/RACS_protocol_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261EFDF8-C3D8-46C9-BA13-0C2C11CCF748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B4840-C04B-47AD-94D1-9E21B0CF0809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24300" yWindow="6684" windowWidth="21600" windowHeight="11388" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
   <si>
     <t>Data from PLC to Robot</t>
   </si>
@@ -162,25 +162,16 @@
     <t>Start Charging Confirmed</t>
   </si>
   <si>
-    <t>Finsh Charging Confirmed</t>
-  </si>
-  <si>
     <t>Combo Connected</t>
   </si>
   <si>
     <t>CHAdeMO Connected</t>
-  </si>
-  <si>
-    <t>Not Connected</t>
   </si>
   <si>
     <t>Did not choose to update from 'Operation' 
 since there's a built-in function from Doosan</t>
   </si>
   <si>
-    <t>Connecting With Vision Data Coming In</t>
-  </si>
-  <si>
     <t>2. communication_structure.py</t>
   </si>
   <si>
@@ -251,12 +242,6 @@
     <t>connection_check</t>
   </si>
   <si>
-    <t>Combo Disconnected</t>
-  </si>
-  <si>
-    <t>CHAdeMO Disconnected</t>
-  </si>
-  <si>
     <t>Recovered</t>
   </si>
   <si>
@@ -273,6 +258,27 @@
   </si>
   <si>
     <t>Home Positioned</t>
+  </si>
+  <si>
+    <t>Finish Charging Confirmed</t>
+  </si>
+  <si>
+    <t>Connect Vision</t>
+  </si>
+  <si>
+    <t>Connect Combo Confirmed</t>
+  </si>
+  <si>
+    <t>Connect CHAdeMO Confirmed</t>
+  </si>
+  <si>
+    <t>Disconnect CHAdeMO</t>
+  </si>
+  <si>
+    <t>Disconnect Combo</t>
+  </si>
+  <si>
+    <t>Vision Connected</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,6 +589,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -601,6 +652,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -610,64 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -986,14 +998,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="25.625" customWidth="1"/>
@@ -1009,339 +1021,339 @@
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="52"/>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5">
+      <c r="B5" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B8" s="55"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.95" customHeight="1">
+      <c r="B9" s="55"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="55"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B12" s="55"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B13" s="55"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="53"/>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5">
-      <c r="B5" s="39" t="s">
+      <c r="H14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B15" s="54">
+        <v>1</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="48">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B16" s="55"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B17" s="55"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B18" s="55"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B19" s="55"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B20" s="55"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B7" s="39">
-        <v>0</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="H20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B21" s="55"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="33">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B9" s="40"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B15" s="39">
-        <v>1</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B19" s="40"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B21" s="40"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B23" s="17">
         <v>2</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="27">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>10</v>
@@ -1352,147 +1364,147 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="39">
+      <c r="B24" s="54">
         <v>3</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="57">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="45" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B25" s="40"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B26" s="40"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="37"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B27" s="40"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B28" s="40"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="37"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="37"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B30" s="40"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="37"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="37"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="17">
         <v>4</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="28">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>10</v>
@@ -1503,147 +1515,147 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B33" s="39">
+      <c r="B33" s="54">
         <v>5</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="D33" s="43"/>
+      <c r="E33" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="57">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B34" s="40"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="37"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="46"/>
       <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B35" s="40"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="37"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="46"/>
       <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B36" s="40"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="37"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="46"/>
       <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="37"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B38" s="40"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="37"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="46"/>
       <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B39" s="40"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="31"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="38"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="32"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B41" s="17">
         <v>6</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="29">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1660,7 +1672,7 @@
       <c r="C42" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="46"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="19" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>10</v>
@@ -1709,227 +1721,227 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="51"/>
+      <c r="C49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="52"/>
+      <c r="C50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="2:10" ht="19.5">
+      <c r="B51" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="52"/>
-      <c r="C49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="53"/>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="41"/>
+      <c r="H51" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+    </row>
+    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B53" s="54">
+        <v>0</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="2:10" ht="19.5">
-      <c r="B51" s="39" t="s">
+      <c r="D53" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="48">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B54" s="55"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="46"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="55"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="46"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B56" s="55"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="46"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="55"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="46"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="2:10" ht="31.5">
+      <c r="B58" s="55"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-    </row>
-    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B53" s="39">
-        <v>0</v>
-      </c>
-      <c r="C53" s="42" t="s">
+      <c r="H58" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="46"/>
+      <c r="J58" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B59" s="55"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="33">
+      <c r="H59" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" s="46"/>
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B60" s="56"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="47"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="2:10" ht="15.95" customHeight="1">
+      <c r="B61" s="54">
         <v>1</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B54" s="40"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="40"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="2" t="s">
+      <c r="C61" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="48">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="31"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B56" s="40"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="40"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="31"/>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="2:10" ht="31.5">
-      <c r="B58" s="40"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="31"/>
-      <c r="J58" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B59" s="40"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="19"/>
-    </row>
-    <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B60" s="41"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B61" s="39">
-        <v>1</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="33">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" s="30" t="s">
+      <c r="H61" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="J61" s="21" t="s">
@@ -1937,125 +1949,125 @@
       </c>
     </row>
     <row r="62" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B62" s="40"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="34"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="46"/>
       <c r="J62" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B63" s="40"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="34"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="46"/>
       <c r="J63" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B64" s="40"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="34"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H64" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="46"/>
       <c r="J64" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B65" s="40"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="34"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="46"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B66" s="40"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="34"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="46"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B67" s="40"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="34"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="31"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B68" s="40"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="35"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="50"/>
       <c r="G68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I68" s="31"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B69" s="17">
         <v>2</v>
       </c>
-      <c r="C69" s="47"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="16" t="s">
         <v>14</v>
       </c>
@@ -2077,150 +2089,146 @@
       <c r="J69" s="15"/>
     </row>
     <row r="70" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B70" s="39">
+      <c r="B70" s="54">
         <v>3</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="57">
         <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="45" t="s">
         <v>33</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B71" s="40"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="37"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="31"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B72" s="40"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="37"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="21" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="46"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B73" s="40"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="37"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H73" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="46"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B74" s="40"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="44" t="s">
+      <c r="B74" s="55"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="44" t="s">
+      <c r="E74" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="37"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="31"/>
+      <c r="I74" s="46"/>
       <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B75" s="40"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="37"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="31"/>
+      <c r="I75" s="46"/>
       <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B76" s="40"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="37"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I76" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="46"/>
       <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" ht="31.5">
-      <c r="B77" s="41"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="38"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="59"/>
       <c r="G77" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I77" s="47"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B78" s="20">
         <v>4</v>
       </c>
-      <c r="C78" s="47"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="16" t="s">
         <v>14</v>
       </c>
@@ -2231,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>10</v>
@@ -2241,144 +2249,136 @@
       </c>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B79" s="39">
+    <row r="79" spans="2:10">
+      <c r="B79" s="54">
         <v>5</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="36">
+      <c r="E79" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="57">
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="30" t="s">
+      <c r="I79" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="J79" s="60"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="40"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="37"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="31"/>
-      <c r="J80" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I80" s="46"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B81" s="40"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="37"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H81" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I81" s="31"/>
-      <c r="J81" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="46"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B82" s="40"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="37"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="I82" s="31"/>
-      <c r="J82" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="46"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B83" s="40"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="37"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H83" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="46"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B84" s="40"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="37"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I84" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="46"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="2:10" ht="31.5">
-      <c r="B85" s="40"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="37"/>
+    <row r="85" spans="2:10">
+      <c r="B85" s="55"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="58"/>
       <c r="G85" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I85" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85" s="46"/>
       <c r="J85" s="19"/>
     </row>
     <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B86" s="40"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="37"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H86" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I86" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="H86" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="47"/>
       <c r="J86" s="19"/>
     </row>
     <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
@@ -2437,26 +2437,34 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="F53:F60"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I79:I86"/>
+    <mergeCell ref="F61:F68"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="F79:F86"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="I33:I40"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="C70:C78"/>
+    <mergeCell ref="I53:I60"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="I15:I22"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="E33:E41"/>
+    <mergeCell ref="F33:F40"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D7:D42"/>
     <mergeCell ref="B5:B6"/>
@@ -2473,37 +2481,29 @@
     <mergeCell ref="C15:C23"/>
     <mergeCell ref="I7:I14"/>
     <mergeCell ref="E7:E14"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="E15:E23"/>
     <mergeCell ref="F24:F31"/>
     <mergeCell ref="F15:F22"/>
-    <mergeCell ref="E24:E32"/>
-    <mergeCell ref="I15:I22"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="E33:E41"/>
-    <mergeCell ref="F33:F40"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="I33:I40"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="F79:F86"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="C70:C78"/>
-    <mergeCell ref="I53:I60"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="I79:I86"/>
-    <mergeCell ref="F61:F68"/>
-    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="F53:F60"/>
+    <mergeCell ref="I51:I52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RACS_protocol_v1.1.xlsx
+++ b/RACS_protocol_v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkim/GITHUB/01_RACS/racs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE13A33-C780-E04A-AE50-08F0978CF6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C93939-95E7-450F-8E76-0B208040C404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21300" windowHeight="21140" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,6 +637,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -646,33 +655,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -688,33 +712,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1028,56 +1028,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75:I82"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="27" thickBot="1">
       <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="16.5" thickBot="1"/>
+    <row r="7" spans="2:10" ht="27" thickBot="1">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="2:10">
+      <c r="B8" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1085,69 +1085,69 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
+    <row r="10" spans="2:10" ht="19.5">
+      <c r="B10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="58"/>
+      <c r="H10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B12" s="46">
         <v>0</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="40">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1156,128 +1156,128 @@
       <c r="H12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="37" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="38"/>
+    <row r="13" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="59"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="38"/>
+    <row r="14" spans="2:10" ht="15.95" customHeight="1">
+      <c r="B14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="38"/>
+    <row r="15" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="55"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="38"/>
+    <row r="16" spans="2:10">
+      <c r="B16" s="47"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="38"/>
+    <row r="17" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="55"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="38"/>
+    <row r="18" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="39"/>
+    <row r="19" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="54">
+    <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B20" s="46">
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="40">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1286,123 +1286,123 @@
       <c r="H20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="37" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="55"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="38"/>
+    <row r="21" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="55"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="38"/>
+    <row r="22" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="55"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="38"/>
+    <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B23" s="47"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="59"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="55"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="38"/>
+    <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="55"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="38"/>
+    <row r="25" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B25" s="47"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="59"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="55"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="38"/>
+    <row r="26" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="59"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="55"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="38"/>
+    <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="26">
         <v>1</v>
       </c>
@@ -1417,18 +1417,18 @@
       </c>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54">
+    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B29" s="46">
         <v>3</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="43">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1437,123 +1437,123 @@
       <c r="H29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="37" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="48"/>
+    <row r="30" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="59"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="48"/>
+    <row r="31" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="55"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="48"/>
+    <row r="32" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="59"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="55"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
+    <row r="33" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="59"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="55"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="48"/>
+    <row r="34" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B34" s="47"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="59"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="55"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="48"/>
+    <row r="35" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="59"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="55"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="48"/>
+    <row r="36" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B36" s="47"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="60"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B37" s="16">
         <v>4</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="27">
         <v>1</v>
       </c>
@@ -1568,18 +1568,18 @@
       </c>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="54">
+    <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B38" s="46">
         <v>5</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="43">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1588,124 +1588,124 @@
       <c r="H38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="37" t="s">
         <v>32</v>
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="48"/>
+    <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B39" s="47"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="59"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="55"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="48"/>
+    <row r="40" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="59"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="55"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="48"/>
+    <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B41" s="47"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="59"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="55"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="48"/>
+    <row r="42" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B42" s="47"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="59"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="48"/>
+    <row r="43" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B43" s="47"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="59"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="55"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="48"/>
+    <row r="44" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B44" s="47"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="59"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="55"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="61"/>
+    <row r="45" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B45" s="47"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="60"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B46" s="16">
         <v>6</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="18" t="s">
         <v>14</v>
       </c>
@@ -1723,14 +1723,14 @@
       </c>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B47" s="19">
         <v>7</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="18" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="19.5">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
@@ -1759,7 +1759,7 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="19.5">
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
@@ -1770,16 +1770,16 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="16.5" thickBot="1"/>
+    <row r="52" spans="2:10" ht="26.25">
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="51" t="s">
+    <row r="53" spans="2:10">
+      <c r="B53" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1787,76 +1787,76 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="51"/>
+    <row r="54" spans="2:10">
+      <c r="B54" s="59"/>
       <c r="C54" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="52"/>
+    <row r="55" spans="2:10">
+      <c r="B55" s="60"/>
       <c r="C55" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B56" s="54" t="s">
+    <row r="56" spans="2:10" ht="19.5">
+      <c r="B56" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="58"/>
+      <c r="H56" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+    <row r="57" spans="2:10">
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="54">
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B58" s="46">
         <v>0</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="40">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -1865,132 +1865,132 @@
       <c r="H58" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="37" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="55"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="38"/>
+    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B59" s="47"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="59"/>
+      <c r="I59" s="38"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="55"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="38"/>
+    <row r="60" spans="2:10">
+      <c r="B60" s="47"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="59"/>
+      <c r="I60" s="38"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="55"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="38"/>
+    <row r="61" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B61" s="47"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="59"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="55"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="38"/>
+    <row r="62" spans="2:10">
+      <c r="B62" s="47"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="41"/>
       <c r="G62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H62" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I62" s="59"/>
+      <c r="I62" s="38"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B63" s="55"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="38"/>
+    <row r="63" spans="2:10" ht="31.5">
+      <c r="B63" s="47"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="59"/>
+      <c r="I63" s="38"/>
       <c r="J63" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="55"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="38"/>
+    <row r="64" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B64" s="47"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="59"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="39"/>
+    <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B65" s="52"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H65" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="39"/>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="54">
+    <row r="66" spans="2:10" ht="15.95" customHeight="1">
+      <c r="B66" s="46">
         <v>1</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="40">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -1999,133 +1999,133 @@
       <c r="H66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="58" t="s">
+      <c r="I66" s="37" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="55"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="38"/>
+    <row r="67" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B67" s="47"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="59"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="55"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="38"/>
+    <row r="68" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B68" s="47"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H68" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="59"/>
+      <c r="I68" s="38"/>
       <c r="J68" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="55"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="38"/>
+    <row r="69" spans="2:10" ht="15.95" customHeight="1">
+      <c r="B69" s="47"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H69" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="59"/>
+      <c r="I69" s="38"/>
       <c r="J69" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="55"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44" t="s">
+    <row r="70" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B70" s="47"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="38"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="59"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="55"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="38"/>
+    <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B71" s="47"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="59"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="55"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="38"/>
+    <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B72" s="47"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="41"/>
       <c r="G72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H72" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I72" s="59"/>
+      <c r="I72" s="38"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="55"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="39"/>
+    <row r="73" spans="2:10" ht="31.5">
+      <c r="B73" s="47"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H73" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="59"/>
+      <c r="I73" s="38"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B74" s="16">
         <v>2</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="15" t="s">
         <v>14</v>
       </c>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="54">
+    <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B75" s="46">
         <v>3</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="43">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -2168,125 +2168,125 @@
       <c r="H75" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I75" s="58" t="s">
+      <c r="I75" s="37" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="55"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="48"/>
+    <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B76" s="47"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H76" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I76" s="59"/>
+      <c r="I76" s="38"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="55"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="48"/>
+    <row r="77" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B77" s="47"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H77" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I77" s="59"/>
+      <c r="I77" s="38"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="55"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="48"/>
+    <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B78" s="47"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="44"/>
       <c r="G78" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H78" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="59"/>
+      <c r="I78" s="38"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="55"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44" t="s">
+    <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B79" s="47"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="48"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H79" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="59"/>
+      <c r="I79" s="38"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="55"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="48"/>
+    <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B80" s="47"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H80" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="59"/>
+      <c r="I80" s="38"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="55"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="48"/>
+    <row r="81" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B81" s="47"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H81" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I81" s="59"/>
+      <c r="I81" s="38"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="56"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="61"/>
+    <row r="82" spans="2:10">
+      <c r="B82" s="52"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H82" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="60"/>
+      <c r="I82" s="39"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B83" s="19">
         <v>4</v>
       </c>
-      <c r="C83" s="57"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="15" t="s">
         <v>14</v>
       </c>
@@ -2307,20 +2307,20 @@
       </c>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="54">
+    <row r="84" spans="2:10">
+      <c r="B84" s="46">
         <v>5</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="43">
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -2329,119 +2329,119 @@
       <c r="H84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="58" t="s">
+      <c r="I84" s="37" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="35"/>
     </row>
-    <row r="85" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B85" s="55"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="48"/>
+    <row r="85" spans="2:10">
+      <c r="B85" s="47"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="44"/>
       <c r="G85" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="59"/>
+      <c r="I85" s="38"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="55"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="48"/>
+    <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B86" s="47"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="44"/>
       <c r="G86" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H86" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I86" s="59"/>
+      <c r="I86" s="38"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="55"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="48"/>
+    <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B87" s="47"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="44"/>
       <c r="G87" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H87" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="59"/>
+      <c r="I87" s="38"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="55"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="48"/>
+    <row r="88" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B88" s="47"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="44"/>
       <c r="G88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H88" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I88" s="59"/>
+      <c r="I88" s="38"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="55"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="48"/>
+    <row r="89" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B89" s="47"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="44"/>
       <c r="G89" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H89" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I89" s="59"/>
+      <c r="I89" s="38"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="48"/>
+    <row r="90" spans="2:10">
+      <c r="B90" s="47"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="44"/>
       <c r="G90" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H90" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I90" s="59"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="55"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="48"/>
+    <row r="91" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B91" s="47"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H91" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I91" s="60"/>
+      <c r="I91" s="39"/>
       <c r="J91" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B92" s="1">
         <v>6</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B93" s="16">
         <v>7</v>
       </c>
@@ -2497,14 +2497,47 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="F66:F73"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D12:D47"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="I29:I36"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="F20:F27"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="I38:I45"/>
@@ -2521,49 +2554,16 @@
     <mergeCell ref="I66:I73"/>
     <mergeCell ref="I75:I82"/>
     <mergeCell ref="E29:E37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="E84:E91"/>
     <mergeCell ref="E66:E69"/>
     <mergeCell ref="D66:D69"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="D12:D47"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="H56:H57"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RACS_protocol_v1.1.xlsx
+++ b/RACS_protocol_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C93939-95E7-450F-8E76-0B208040C404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E808A95D-25F9-4225-AAAA-16C451B72DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
   <si>
     <t>Data from PLC to Robot</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>Clamped</t>
-  </si>
-  <si>
-    <t>Wait Confirmed</t>
-  </si>
-  <si>
-    <t>Start Charging Confirmed</t>
   </si>
   <si>
     <t>Did not choose to update from 'Operation' 
@@ -215,15 +209,6 @@
     <t>Hex</t>
   </si>
   <si>
-    <t>Recover Confirmed</t>
-  </si>
-  <si>
-    <t>Go to Home Position Confirmed</t>
-  </si>
-  <si>
-    <t>Go to Wait Position Confirmed</t>
-  </si>
-  <si>
     <t>connection_check</t>
   </si>
   <si>
@@ -245,9 +230,6 @@
     <t>Home Positioned</t>
   </si>
   <si>
-    <t>Finish Charging Confirmed</t>
-  </si>
-  <si>
     <t>Connect Vision</t>
   </si>
   <si>
@@ -260,28 +242,10 @@
     <t>Grasp Combo</t>
   </si>
   <si>
-    <t>Release Combo</t>
-  </si>
-  <si>
-    <t>Release CHAdeMO</t>
-  </si>
-  <si>
-    <t>Grasp Combo Confirmed</t>
-  </si>
-  <si>
-    <t>Grasp CHAdeMO Confirmed</t>
-  </si>
-  <si>
     <t>Combo Grasped</t>
   </si>
   <si>
     <t>CHAdeMO Grasped</t>
-  </si>
-  <si>
-    <t>Release CHAdeMO Confirmed</t>
-  </si>
-  <si>
-    <t>Release Combo Confirmed</t>
   </si>
   <si>
     <t>0x00: No Connector Connected(DEFAULT)</t>
@@ -541,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +601,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -646,14 +652,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -663,51 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1028,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1044,28 +1011,28 @@
   <sheetData>
     <row r="1" spans="2:10" ht="27" thickBot="1">
       <c r="B1" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.5" thickBot="1"/>
@@ -1077,337 +1044,337 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="58"/>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5">
+      <c r="B10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="60"/>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:10" ht="19.5">
-      <c r="B10" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="55" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B12" s="54">
+        <v>0</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B12" s="46">
-        <v>0</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="40">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="51" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="41"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="47"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="I16" s="52"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="47"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="38"/>
+        <v>64</v>
+      </c>
+      <c r="I18" s="52"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B20" s="46">
+      <c r="B20" s="54">
         <v>1</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="42">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="51" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B21" s="47"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="41"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B22" s="47"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="41"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="41"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="38"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="38"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="38"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B26" s="47"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="41"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="38"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="47"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="38"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="26">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>10</v>
@@ -1418,147 +1385,147 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B29" s="46">
+      <c r="B29" s="54">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="59">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="51" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B30" s="47"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="38"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B31" s="47"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="38"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B32" s="47"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="38"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B33" s="47"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="44"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="38"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="38"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B35" s="47"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="44"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="38"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B36" s="47"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="44"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B37" s="16">
         <v>4</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="53"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="27">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>10</v>
@@ -1569,133 +1536,133 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B38" s="46">
+      <c r="B38" s="54">
         <v>5</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="43">
+      <c r="D38" s="48"/>
+      <c r="E38" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="59">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="51" t="s">
         <v>32</v>
       </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B39" s="47"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="44"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="38"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B40" s="47"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="44"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="52"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B41" s="47"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="44"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="52"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="44"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="38"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B43" s="47"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="44"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="38"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B44" s="47"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="44"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="60"/>
       <c r="G44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" s="38"/>
+        <v>66</v>
+      </c>
+      <c r="I44" s="52"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B45" s="47"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="45"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="I45" s="53"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1">
@@ -1705,7 +1672,7 @@
       <c r="C46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="18" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1730,7 +1697,7 @@
       <c r="C47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="53"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="18" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>10</v>
@@ -1779,227 +1746,227 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="57"/>
+      <c r="C54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="58"/>
+      <c r="C55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="2:10" ht="19.5">
+      <c r="B56" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B58" s="54">
+        <v>0</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="59"/>
-      <c r="C54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="60"/>
-      <c r="C55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="2:10" ht="19.5">
-      <c r="B56" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="6" t="s">
+      <c r="D58" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="42">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-    </row>
-    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B58" s="46">
-        <v>0</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="40">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H58" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="37" t="s">
+      <c r="I58" s="51" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B59" s="47"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="41"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="38"/>
+      <c r="I59" s="52"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="47"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="41"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="38"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B61" s="47"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="41"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="43"/>
       <c r="G61" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="38"/>
+      <c r="I61" s="52"/>
       <c r="J61" s="18"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="47"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="41"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="43"/>
       <c r="G62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="I62" s="52"/>
       <c r="J62" s="18"/>
     </row>
     <row r="63" spans="2:10" ht="31.5">
-      <c r="B63" s="47"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="41"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="38"/>
+      <c r="I63" s="52"/>
       <c r="J63" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B64" s="47"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="41"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I64" s="38"/>
+        <v>65</v>
+      </c>
+      <c r="I64" s="52"/>
       <c r="J64" s="18"/>
     </row>
     <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B65" s="52"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="42"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H65" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="39"/>
+      <c r="I65" s="53"/>
       <c r="J65" s="14"/>
     </row>
     <row r="66" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B66" s="46">
+      <c r="B66" s="54">
         <v>1</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F66" s="42">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I66" s="51" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="20" t="s">
@@ -2007,125 +1974,125 @@
       </c>
     </row>
     <row r="67" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B67" s="47"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="41"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="38"/>
+      <c r="I67" s="52"/>
       <c r="J67" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B68" s="47"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="41"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I68" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="52"/>
       <c r="J68" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="41"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I69" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="52"/>
       <c r="J69" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B70" s="47"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="50" t="s">
+      <c r="B70" s="55"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="50" t="s">
+      <c r="E70" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="41"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="38"/>
+      <c r="I70" s="52"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B71" s="47"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="41"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="38"/>
+      <c r="I71" s="52"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B72" s="47"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="41"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="I72" s="52"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" ht="31.5">
-      <c r="B73" s="47"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="42"/>
+    <row r="73" spans="2:10">
+      <c r="B73" s="55"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="I73" s="52"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B74" s="16">
         <v>2</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="15" t="s">
         <v>14</v>
       </c>
@@ -2147,146 +2114,146 @@
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B75" s="46">
+      <c r="B75" s="54">
         <v>3</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="59">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H75" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I75" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="51" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B76" s="47"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="44"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I76" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="52"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B77" s="47"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="44"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H77" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I77" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="52"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B78" s="47"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="44"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I78" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="52"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B79" s="47"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="50" t="s">
+      <c r="B79" s="55"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="50" t="s">
+      <c r="E79" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="44"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H79" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" s="52"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
+      <c r="B80" s="55"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="38"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B80" s="47"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I80" s="38"/>
+      <c r="I80" s="52"/>
       <c r="J80" s="20"/>
     </row>
     <row r="81" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B81" s="47"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="44"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="I81" s="52"/>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="52"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="45"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I82" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="I82" s="53"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B83" s="19">
         <v>4</v>
       </c>
-      <c r="C83" s="54"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="15" t="s">
         <v>14</v>
       </c>
@@ -2297,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>10</v>
@@ -2308,137 +2275,137 @@
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="46">
+      <c r="B84" s="54">
         <v>5</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="43">
+      <c r="E84" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="59">
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="51" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="47"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="44"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="38"/>
+      <c r="I85" s="52"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B86" s="47"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="44"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H86" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I86" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="52"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B87" s="47"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="44"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I87" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="52"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B88" s="47"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="44"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H88" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I88" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="52"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B89" s="47"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="44"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="60"/>
       <c r="G89" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I89" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="52"/>
       <c r="J89" s="18"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="47"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="44"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I90" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I90" s="52"/>
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B91" s="47"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="44"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I91" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="53"/>
       <c r="J91" s="18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="17.100000000000001" customHeight="1">
@@ -2497,6 +2464,63 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="I75:I82"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="I29:I36"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D12:D47"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
     <mergeCell ref="J56:J57"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F58:F65"/>
@@ -2506,64 +2530,7 @@
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D12:D47"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="C75:C83"/>
     <mergeCell ref="I58:I65"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="I75:I82"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="F66:F73"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="E84:E91"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="D66:D69"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RACS_protocol_v1.1.xlsx
+++ b/RACS_protocol_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E808A95D-25F9-4225-AAAA-16C451B72DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093AB33F-F6ED-4DA1-B452-4FE70880A304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
+    <workbookView xWindow="-23004" yWindow="48" windowWidth="15960" windowHeight="9024" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="86">
   <si>
     <t>Data from PLC to Robot</t>
   </si>
@@ -270,6 +270,30 @@
   </si>
   <si>
     <t>4. Let's make it easy to read and interpret for future me &amp; co-workers - if it's confusing, please write comments on top of the line.</t>
+  </si>
+  <si>
+    <t>Unclamp Combo Holder</t>
+  </si>
+  <si>
+    <t>Unclamp CHAdeMO Holder</t>
+  </si>
+  <si>
+    <t>CHAdeMO Holder Unclamped</t>
+  </si>
+  <si>
+    <t>Combo Holder Unclamped</t>
+  </si>
+  <si>
+    <t>Test Combo</t>
+  </si>
+  <si>
+    <t>Test CHAdeMO</t>
+  </si>
+  <si>
+    <t>Combo Tested</t>
+  </si>
+  <si>
+    <t>CHAdeMO Tested</t>
   </si>
 </sst>
 </file>
@@ -605,6 +629,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,68 +697,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,21 +1019,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.125" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="10" max="10" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.09765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" thickBot="1">
+    <row r="1" spans="2:10" ht="26.4" thickBot="1">
       <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
@@ -1035,8 +1059,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.5" thickBot="1"/>
-    <row r="7" spans="2:10" ht="27" thickBot="1">
+    <row r="6" spans="2:10" ht="16.2" thickBot="1"/>
+    <row r="7" spans="2:10" ht="26.4" thickBot="1">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1068,7 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1053,68 +1077,68 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="58"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:10" ht="19.5">
-      <c r="B10" s="54" t="s">
+    <row r="10" spans="2:10" ht="19.8">
+      <c r="B10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="60"/>
+      <c r="H10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B12" s="54">
+      <c r="B12" s="38">
         <v>0</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="49">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1123,128 +1147,128 @@
       <c r="H12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="46" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="55"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="43"/>
+    <row r="14" spans="2:10" ht="15.9" customHeight="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="52"/>
+      <c r="H14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="47"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="52"/>
+      <c r="H15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="47"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="55"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="52"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="53"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B20" s="54">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="49">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1253,123 +1277,123 @@
       <c r="H20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B21" s="55"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B23" s="55"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="52"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="55"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="52"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B26" s="55"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="43"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="52"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="55"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="26">
         <v>1</v>
       </c>
@@ -1385,17 +1409,17 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B29" s="54">
+      <c r="B29" s="38">
         <v>3</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="47" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="52">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1404,123 +1428,123 @@
       <c r="H29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="46" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B30" s="55"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="60"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="52"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B31" s="55"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="60"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="52"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B32" s="55"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="60"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B33" s="55"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="60"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B34" s="55"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="60"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="52"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B35" s="55"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="60"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="52"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B36" s="55"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="60"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="53"/>
+      <c r="I36" s="48"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B37" s="16">
         <v>4</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="50"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="27">
         <v>1</v>
       </c>
@@ -1536,17 +1560,17 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B38" s="54">
+      <c r="B38" s="38">
         <v>5</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="52">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1555,114 +1579,114 @@
       <c r="H38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="46" t="s">
         <v>32</v>
       </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B39" s="55"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="60"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B40" s="55"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="60"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="52"/>
+      <c r="H40" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="47"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B41" s="55"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="60"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="52"/>
+      <c r="H41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="47"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B42" s="55"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="60"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="52"/>
+      <c r="H42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="47"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B43" s="55"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="60"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="52"/>
+      <c r="H43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="47"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B44" s="55"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="60"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I44" s="52"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B45" s="55"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="61"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="53"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1">
@@ -1672,7 +1696,7 @@
       <c r="C46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="18" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1721,7 @@
       <c r="C47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="18" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1739,7 @@
       </c>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="2:10" ht="19.5">
+    <row r="48" spans="2:10" ht="19.8">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
@@ -1726,7 +1750,7 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="2:10" ht="19.5">
+    <row r="49" spans="2:10" ht="19.8">
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
@@ -1737,8 +1761,8 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="51" spans="2:10" ht="16.5" thickBot="1"/>
-    <row r="52" spans="2:10" ht="26.25">
+    <row r="51" spans="2:10" ht="16.2" thickBot="1"/>
+    <row r="52" spans="2:10" ht="25.8">
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1770,7 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1755,75 +1779,75 @@
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="57"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="58"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="2:10" ht="19.5">
-      <c r="B56" s="54" t="s">
+    <row r="56" spans="2:10" ht="19.8">
+      <c r="B56" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="38" t="s">
+      <c r="G56" s="60"/>
+      <c r="H56" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I56" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
     </row>
     <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B58" s="54">
+      <c r="B58" s="38">
         <v>0</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="49">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -1832,132 +1856,132 @@
       <c r="H58" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="46" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B59" s="55"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="43"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="52"/>
+      <c r="I59" s="47"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="55"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="43"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="52"/>
+      <c r="H60" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="47"/>
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B61" s="55"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="43"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="52"/>
+      <c r="H61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="47"/>
       <c r="J61" s="18"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="55"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="43"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="I62" s="52"/>
+      <c r="I62" s="47"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="2:10" ht="31.5">
-      <c r="B63" s="55"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="43"/>
+    <row r="63" spans="2:10" ht="46.8">
+      <c r="B63" s="39"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="52"/>
+      <c r="I63" s="47"/>
       <c r="J63" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B64" s="55"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="43"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H64" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I64" s="52"/>
+      <c r="I64" s="47"/>
       <c r="J64" s="18"/>
     </row>
     <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B65" s="56"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="44"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="51"/>
       <c r="G65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H65" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="53"/>
+      <c r="I65" s="48"/>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B66" s="54">
+    <row r="66" spans="2:10" ht="15.9" customHeight="1">
+      <c r="B66" s="38">
         <v>1</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="62" t="s">
+      <c r="E66" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="49">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -1966,7 +1990,7 @@
       <c r="H66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="51" t="s">
+      <c r="I66" s="46" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="20" t="s">
@@ -1974,125 +1998,125 @@
       </c>
     </row>
     <row r="67" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B67" s="55"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="43"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="50"/>
       <c r="G67" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="52"/>
+      <c r="I67" s="47"/>
       <c r="J67" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B68" s="55"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="43"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="50"/>
       <c r="G68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="52"/>
+      <c r="I68" s="47"/>
       <c r="J68" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B69" s="55"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="43"/>
+    <row r="69" spans="2:10" ht="15.9" customHeight="1">
+      <c r="B69" s="39"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="50"/>
       <c r="G69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="52"/>
+      <c r="I69" s="47"/>
       <c r="J69" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B70" s="55"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="47" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" s="50"/>
       <c r="G70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="52"/>
+      <c r="I70" s="47"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B71" s="55"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="50"/>
       <c r="G71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="52"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B72" s="55"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="43"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="50"/>
       <c r="G72" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="52"/>
+      <c r="I72" s="47"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="55"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="44"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I73" s="52"/>
+      <c r="I73" s="47"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B74" s="16">
         <v>2</v>
       </c>
-      <c r="C74" s="49"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="15" t="s">
         <v>14</v>
       </c>
@@ -2114,19 +2138,19 @@
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B75" s="54">
+      <c r="B75" s="38">
         <v>3</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F75" s="52">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -2135,125 +2159,125 @@
       <c r="H75" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="51" t="s">
+      <c r="I75" s="46" t="s">
         <v>30</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B76" s="55"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="60"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="52"/>
+      <c r="I76" s="47"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B77" s="55"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="60"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="52"/>
+      <c r="I77" s="47"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B78" s="55"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="60"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="53"/>
       <c r="G78" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="52"/>
+      <c r="I78" s="47"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B79" s="55"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="47" t="s">
+      <c r="B79" s="39"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E79" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H79" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I79" s="52"/>
+      <c r="I79" s="47"/>
       <c r="J79" s="20"/>
     </row>
     <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B80" s="55"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="60"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="53"/>
       <c r="G80" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H80" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I80" s="52"/>
+      <c r="I80" s="47"/>
       <c r="J80" s="20"/>
     </row>
     <row r="81" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B81" s="55"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="60"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H81" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I81" s="52"/>
+      <c r="I81" s="47"/>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="56"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="61"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="54"/>
       <c r="G82" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H82" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I82" s="53"/>
+      <c r="I82" s="48"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B83" s="19">
         <v>4</v>
       </c>
-      <c r="C83" s="49"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="15" t="s">
         <v>14</v>
       </c>
@@ -2275,19 +2299,19 @@
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="54">
+      <c r="B84" s="38">
         <v>5</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="47" t="s">
+      <c r="E84" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="52">
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -2296,114 +2320,114 @@
       <c r="H84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="51" t="s">
+      <c r="I84" s="46" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="55"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="60"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="52"/>
+      <c r="I85" s="47"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B86" s="55"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="60"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H86" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="52"/>
+      <c r="H86" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86" s="47"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B87" s="55"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="60"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H87" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="52"/>
+      <c r="H87" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="47"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B88" s="55"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="60"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="52"/>
+      <c r="I88" s="47"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B89" s="55"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="60"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="53"/>
       <c r="G89" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="52"/>
+      <c r="I89" s="47"/>
       <c r="J89" s="18"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="55"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="60"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H90" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I90" s="52"/>
+      <c r="I90" s="47"/>
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B91" s="55"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="60"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H91" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I91" s="53"/>
+      <c r="I91" s="48"/>
       <c r="J91" s="18" t="s">
         <v>70</v>
       </c>
@@ -2464,25 +2488,41 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="E84:E91"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="I75:I82"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="F66:F73"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="I58:I65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D12:D47"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B29:B36"/>
     <mergeCell ref="I20:I27"/>
     <mergeCell ref="I29:I36"/>
     <mergeCell ref="F38:F45"/>
@@ -2495,42 +2535,26 @@
     <mergeCell ref="F29:F36"/>
     <mergeCell ref="F20:F27"/>
     <mergeCell ref="I38:I45"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D12:D47"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="I66:I73"/>
+    <mergeCell ref="I75:I82"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="F66:F73"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C75:C83"/>
     <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="I58:I65"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RACS_protocol_v1.1.xlsx
+++ b/RACS_protocol_v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\GITHUB\racs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4FDBE-A333-41DD-B1AD-4D262CA3F41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0FADBA-1386-453F-B2E4-DB7AC5E96F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
   <si>
     <t>Data from PLC to Robot</t>
   </si>
@@ -335,6 +335,30 @@
   </si>
   <si>
     <t>test_sensor_check</t>
+  </si>
+  <si>
+    <t>RTOP_data[0]</t>
+  </si>
+  <si>
+    <t>RTOP_data[1]</t>
+  </si>
+  <si>
+    <t>RTOP_data[2]</t>
+  </si>
+  <si>
+    <t>RTOP_data[3]</t>
+  </si>
+  <si>
+    <t>RTOP_data[4]</t>
+  </si>
+  <si>
+    <t>RTOP_data[5]</t>
+  </si>
+  <si>
+    <t>RTOP_data[6]</t>
+  </si>
+  <si>
+    <t>RTOP_data[7]</t>
   </si>
 </sst>
 </file>
@@ -669,6 +693,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -681,65 +759,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1106,7 +1130,7 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1115,68 +1139,68 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="58"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:10" ht="19.5">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B12" s="52">
+      <c r="B12" s="44">
         <v>0</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="50">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1185,132 +1209,132 @@
       <c r="H12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="38" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="53"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="51"/>
       <c r="G13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="50"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B14" s="53"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="53"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="50"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B16" s="53"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="53"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="50"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B20" s="52">
+      <c r="B20" s="44">
         <v>1</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="50">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1319,132 +1343,132 @@
       <c r="H20" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="38" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B21" s="53"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="50"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="50"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="50"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B25" s="53"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="50"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="50"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="18"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B27" s="54"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="44"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="50"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B28" s="52">
+      <c r="B28" s="44">
         <v>2</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="50">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1453,123 +1477,123 @@
       <c r="H28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="38" t="s">
         <v>29</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B29" s="53"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="43"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="50"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B30" s="53"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="50"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B31" s="53"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="50"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B32" s="53"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="50"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B33" s="53"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="50"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B34" s="53"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="43"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="50"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B35" s="53"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="50"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B36" s="16">
         <v>3</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="55"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="26">
         <v>1</v>
       </c>
@@ -1585,17 +1609,17 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B37" s="52">
+      <c r="B37" s="44">
         <v>4</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="53">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1604,123 +1628,123 @@
       <c r="H37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="38" t="s">
         <v>31</v>
       </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B38" s="53"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="60"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="50"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B39" s="53"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="60"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="50"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B40" s="53"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="60"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="50"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B41" s="53"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="60"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="50"/>
+      <c r="I41" s="39"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B42" s="53"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="60"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="50"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B43" s="53"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="60"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B44" s="53"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="60"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="51"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B45" s="16">
         <v>5</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="55"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="27">
         <v>1</v>
       </c>
@@ -1736,17 +1760,17 @@
       <c r="J45" s="14"/>
     </row>
     <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B46" s="52">
+      <c r="B46" s="44">
         <v>6</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="47" t="s">
+      <c r="D46" s="42"/>
+      <c r="E46" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="53">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -1755,114 +1779,114 @@
       <c r="H46" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B47" s="53"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="60"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="50"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B48" s="53"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="60"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="50"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B49" s="53"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="60"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="50"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B50" s="53"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="60"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="50"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B51" s="53"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="60"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="50"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B52" s="53"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="60"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="50"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B53" s="53"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="61"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="55"/>
       <c r="G53" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="51"/>
+      <c r="I53" s="40"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1">
@@ -1872,7 +1896,7 @@
       <c r="C54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="18" t="s">
         <v>14</v>
       </c>
@@ -1921,7 +1945,7 @@
       <c r="D59" s="13"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -1930,75 +1954,75 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="57"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="58"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="2:10" ht="19.5">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="38" t="s">
+      <c r="G63" s="59"/>
+      <c r="H63" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="38" t="s">
+      <c r="J63" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B65" s="52">
+      <c r="B65" s="44">
         <v>0</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="50">
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -2007,124 +2031,124 @@
       <c r="H65" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I65" s="49" t="s">
-        <v>27</v>
+      <c r="I65" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B66" s="53"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="43"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="51"/>
       <c r="G66" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="50"/>
+      <c r="I66" s="39"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="53"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="43"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="50"/>
+      <c r="I67" s="39"/>
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B68" s="53"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="43"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="51"/>
       <c r="G68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="50"/>
+      <c r="I68" s="39"/>
       <c r="J68" s="18"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="53"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="43"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="51"/>
       <c r="G69" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="50"/>
+      <c r="I69" s="39"/>
       <c r="J69" s="18"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="53"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="43"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="51"/>
       <c r="G70" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="50"/>
+      <c r="I70" s="39"/>
       <c r="J70" s="20"/>
     </row>
     <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B71" s="53"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H71" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I71" s="50"/>
+      <c r="I71" s="39"/>
       <c r="J71" s="18"/>
     </row>
     <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B72" s="54"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="44"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H72" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I72" s="51"/>
+      <c r="I72" s="40"/>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B73" s="52">
+      <c r="B73" s="44">
         <v>1</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="42">
+      <c r="C73" s="47"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="50">
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -2133,130 +2157,130 @@
       <c r="H73" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="49" t="s">
-        <v>28</v>
+      <c r="I73" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="J73" s="18"/>
     </row>
     <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B74" s="53"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="50"/>
+      <c r="I74" s="39"/>
       <c r="J74" s="18"/>
     </row>
     <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B75" s="53"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="51"/>
       <c r="G75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="50"/>
+      <c r="I75" s="39"/>
       <c r="J75" s="18"/>
     </row>
     <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B76" s="53"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="43"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="50"/>
+      <c r="I76" s="39"/>
       <c r="J76" s="18"/>
     </row>
     <row r="77" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B77" s="53"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="43"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H77" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I77" s="50"/>
+      <c r="H77" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="39"/>
       <c r="J77" s="18"/>
     </row>
     <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B78" s="53"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="43"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H78" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I78" s="50"/>
+      <c r="H78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="39"/>
       <c r="J78" s="18"/>
     </row>
     <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B79" s="53"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="43"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H79" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I79" s="50"/>
+      <c r="I79" s="39"/>
       <c r="J79" s="18"/>
     </row>
     <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B80" s="54"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="44"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="52"/>
       <c r="G80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H80" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I80" s="51"/>
+      <c r="I80" s="40"/>
       <c r="J80" s="18"/>
     </row>
     <row r="81" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B81" s="52">
+      <c r="B81" s="44">
         <v>2</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E81" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="50">
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -2265,121 +2289,121 @@
       <c r="H81" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="49" t="s">
-        <v>29</v>
+      <c r="I81" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B82" s="53"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="43"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="51"/>
       <c r="G82" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I82" s="50"/>
+      <c r="I82" s="39"/>
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B83" s="53"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="43"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="51"/>
       <c r="G83" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="50"/>
+      <c r="I83" s="39"/>
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="2:10" ht="15.95" customHeight="1">
-      <c r="B84" s="53"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="43"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="50"/>
+      <c r="I84" s="39"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B85" s="53"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="43"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="50"/>
+      <c r="I85" s="39"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B86" s="53"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="43"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I86" s="50"/>
+      <c r="I86" s="39"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B87" s="53"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="43"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H87" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I87" s="50"/>
+      <c r="I87" s="39"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="53"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="44"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="52"/>
       <c r="G88" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H88" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I88" s="50"/>
+      <c r="I88" s="39"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B89" s="16">
         <v>3</v>
       </c>
-      <c r="C89" s="56"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="15" t="s">
         <v>14</v>
       </c>
@@ -2396,24 +2420,24 @@
         <v>10</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B90" s="52">
+      <c r="B90" s="44">
         <v>4</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="59">
+      <c r="F90" s="53">
         <v>1</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -2422,121 +2446,121 @@
       <c r="H90" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="49" t="s">
-        <v>31</v>
+      <c r="I90" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B91" s="53"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="60"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="54"/>
       <c r="G91" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="50"/>
+      <c r="I91" s="39"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B92" s="53"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="60"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="54"/>
       <c r="G92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H92" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="50"/>
+      <c r="H92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="39"/>
       <c r="J92" s="20"/>
     </row>
     <row r="93" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B93" s="53"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="60"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H93" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="50"/>
+      <c r="H93" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="39"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B94" s="53"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="60"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="54"/>
       <c r="G94" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H94" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I94" s="50"/>
+      <c r="I94" s="39"/>
       <c r="J94" s="20"/>
     </row>
     <row r="95" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B95" s="53"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="60"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="54"/>
       <c r="G95" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H95" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I95" s="50"/>
+      <c r="I95" s="39"/>
       <c r="J95" s="20"/>
     </row>
     <row r="96" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B96" s="53"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="60"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H96" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I96" s="50"/>
+      <c r="I96" s="39"/>
       <c r="J96" s="20"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="54"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="61"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="55"/>
       <c r="G97" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H97" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I97" s="51"/>
+      <c r="I97" s="40"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B98" s="19">
         <v>5</v>
       </c>
-      <c r="C98" s="56"/>
+      <c r="C98" s="49"/>
       <c r="D98" s="15" t="s">
         <v>14</v>
       </c>
@@ -2553,24 +2577,24 @@
         <v>10</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J98" s="14"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="52">
+      <c r="B99" s="44">
         <v>6</v>
       </c>
-      <c r="C99" s="45" t="s">
+      <c r="C99" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="59">
+      <c r="F99" s="53">
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -2579,114 +2603,114 @@
       <c r="H99" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="49" t="s">
-        <v>33</v>
+      <c r="I99" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="J99" s="35"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="53"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="60"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="54"/>
       <c r="G100" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="50"/>
+      <c r="I100" s="39"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B101" s="53"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="60"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="54"/>
       <c r="G101" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H101" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I101" s="50"/>
+      <c r="I101" s="39"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B102" s="53"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="60"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="54"/>
       <c r="G102" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H102" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I102" s="50"/>
+      <c r="I102" s="39"/>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B103" s="53"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="60"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="54"/>
       <c r="G103" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="50"/>
+      <c r="I103" s="39"/>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B104" s="53"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="60"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="54"/>
       <c r="G104" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="50"/>
+      <c r="I104" s="39"/>
       <c r="J104" s="18"/>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="53"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="60"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="54"/>
       <c r="G105" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I105" s="50"/>
+      <c r="I105" s="39"/>
       <c r="J105" s="18"/>
     </row>
     <row r="106" spans="2:10" ht="17.100000000000001" customHeight="1">
-      <c r="B106" s="53"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="60"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="54"/>
       <c r="G106" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H106" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I106" s="51"/>
+      <c r="I106" s="40"/>
       <c r="J106" s="18" t="s">
         <v>86</v>
       </c>
@@ -2714,46 +2738,27 @@
         <v>10</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J107" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="E90:E97"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="D99:D106"/>
-    <mergeCell ref="E99:E106"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C90:C98"/>
-    <mergeCell ref="I81:I88"/>
-    <mergeCell ref="I90:I97"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="I99:I106"/>
-    <mergeCell ref="F81:F88"/>
-    <mergeCell ref="F90:F97"/>
-    <mergeCell ref="F99:F106"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="E65:E80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="E81:E88"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="F28:F35"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:F72"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I65:I72"/>
+    <mergeCell ref="D65:D80"/>
+    <mergeCell ref="C65:C80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="D81:D88"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D12:D54"/>
     <mergeCell ref="B10:B11"/>
@@ -2770,6 +2775,40 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="B20:B27"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="F28:F35"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="I81:I88"/>
+    <mergeCell ref="I90:I97"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="I99:I106"/>
+    <mergeCell ref="F81:F88"/>
+    <mergeCell ref="F90:F97"/>
+    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="F73:F80"/>
+    <mergeCell ref="E65:E80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="E81:E88"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="E90:E97"/>
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="D99:D106"/>
+    <mergeCell ref="E99:E106"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C90:C98"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C63:C64"/>
@@ -2777,21 +2816,6 @@
     <mergeCell ref="C28:C36"/>
     <mergeCell ref="B65:B72"/>
     <mergeCell ref="B81:B88"/>
-    <mergeCell ref="D65:D80"/>
-    <mergeCell ref="C65:C80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C81:C89"/>
-    <mergeCell ref="D81:D88"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F65:F72"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I65:I72"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
